--- a/Data/collapsed database manual cases/chiapas_collapsed_edited.xlsx
+++ b/Data/collapsed database manual cases/chiapas_collapsed_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7da8e9ec94b4821/Documents/ITAM/RA - Horacio/Monitoring Brokers/Data/States/chiapas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpzorrilla/Documents/GitHub/The-Mexican-municipal-elections-electoral-precinct-level-database/Data/collapsed database manual cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="337" documentId="8_{8A1FA36A-9A3D-154D-B93E-B947522989A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A578649E-6D9C-0041-9646-E5AEBDC5C1ED}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722DF904-F260-8849-8E42-2DC3E0457AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32120" yWindow="0" windowWidth="19080" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4480" yWindow="500" windowWidth="31360" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10162" uniqueCount="2340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10274" uniqueCount="2374">
   <si>
     <t>uniqueid</t>
   </si>
@@ -7056,13 +7056,115 @@
   </si>
   <si>
     <t>https://es.wikipedia.org/wiki/Samuel_Toledo_C%C3%B3rdova_Toledo</t>
+  </si>
+  <si>
+    <t>MORENA</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/RubenZuarthChiapas/posts/felicitamos-al-presidente-sergio-luis-zenteno-meneses-del-municipio-de-bochil-po/271683724750990/</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Anexo:Presidentes_municipales_de_Chiapas_(2021-2024)</t>
+  </si>
+  <si>
+    <t>https://oem.com.mx/elheraldodechiapas/local/impugnan-concejo-municipal-de-frontera-comalapa-ante-el-tepjf-16747429</t>
+  </si>
+  <si>
+    <t>https://www.asich.com/califican-como-rotundo-fracaso-la-gestion-del-alcalde-de-pantepec-kike-hernandez.html</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/p/José-Luis-Avendaño-Borraz-100067776858660/</t>
+  </si>
+  <si>
+    <t>SERGIO LUIS ZENDENO MENESES</t>
+  </si>
+  <si>
+    <t>RUBELIO MONDRAGON AGUILAR</t>
+  </si>
+  <si>
+    <t>JOSE LUIS AVENDAÑO BORRAZ</t>
+  </si>
+  <si>
+    <t>ELVIRA DEL CARMEN CASTAÑEDA MAZA</t>
+  </si>
+  <si>
+    <t>https://pvemchiapas.org.mx/wp-content/uploads/2020/11/PARRAL.pdf</t>
+  </si>
+  <si>
+    <t>MARIEN ALEJANDRA ROMAN GRANADOS</t>
+  </si>
+  <si>
+    <t>AMANDO MADAIN TRUJILLO ANCHEYTA</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Anexo:Presidentes_municipales_de_Chiapas_(2018-2021)</t>
+  </si>
+  <si>
+    <t>EMMANUEL CORDERO SANCHEZ</t>
+  </si>
+  <si>
+    <t>PONCIANO GOMEZ GOMEZ</t>
+  </si>
+  <si>
+    <t>EVER DANIEL VELAZQUEZ JAVALOIS</t>
+  </si>
+  <si>
+    <t>ANA CAREN PABLO NAÑEZ</t>
+  </si>
+  <si>
+    <t>JOSE LUIZ LAPARRA CALDERON</t>
+  </si>
+  <si>
+    <t>DORILIAN RIVERA VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>MAURICIO CAMACHO PEDRERO</t>
+  </si>
+  <si>
+    <t>KARLA ERIKA VELAZQUEZ GAMBOA</t>
+  </si>
+  <si>
+    <t>ELIAZ CRUZ SANCHEZ</t>
+  </si>
+  <si>
+    <t>SAMUEL ALEGRIA PEREZ</t>
+  </si>
+  <si>
+    <t>HECTOR MENESES MARCELINO</t>
+  </si>
+  <si>
+    <t>JERONIMA TOLEDO VILLALOBOS</t>
+  </si>
+  <si>
+    <t>ELI CAMAS CASTELLANOS</t>
+  </si>
+  <si>
+    <t>DEYSI LIZBETH GONZALEZ AGUILAR</t>
+  </si>
+  <si>
+    <t>DONI ALAN VERDUGO AGUILAR</t>
+  </si>
+  <si>
+    <t>ADIER NOLASCO MARINA</t>
+  </si>
+  <si>
+    <t>JOAQUIN ZABADUA ALBA</t>
+  </si>
+  <si>
+    <t>AMADEO LOPEZ MENDEZ</t>
+  </si>
+  <si>
+    <t>JESUS ALBERTO OROPEZA NAJERA</t>
+  </si>
+  <si>
+    <t>OSCAR GURRIA PEÑAGOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7110,6 +7212,13 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -7138,7 +7247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7152,6 +7261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7168,10 +7278,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7462,10 +7568,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S938"/>
+  <dimension ref="A1:S966"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H805" sqref="H805:I805"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="I945" sqref="I945"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -50557,6 +50663,566 @@
       </c>
       <c r="Q938" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="939" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A939">
+        <v>7013</v>
+      </c>
+      <c r="B939">
+        <v>2024</v>
+      </c>
+      <c r="C939" t="s">
+        <v>19</v>
+      </c>
+      <c r="F939" t="s">
+        <v>2346</v>
+      </c>
+      <c r="H939" t="s">
+        <v>21</v>
+      </c>
+      <c r="I939" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="940" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A940">
+        <v>7025</v>
+      </c>
+      <c r="B940">
+        <v>2024</v>
+      </c>
+      <c r="C940" t="s">
+        <v>19</v>
+      </c>
+      <c r="F940" t="s">
+        <v>2347</v>
+      </c>
+      <c r="H940" t="s">
+        <v>40</v>
+      </c>
+      <c r="I940" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="941" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A941">
+        <v>7034</v>
+      </c>
+      <c r="B941">
+        <v>2024</v>
+      </c>
+      <c r="C941" t="s">
+        <v>19</v>
+      </c>
+      <c r="F941" t="s">
+        <v>725</v>
+      </c>
+      <c r="H941" t="s">
+        <v>55</v>
+      </c>
+      <c r="I941" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="942" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A942">
+        <v>7067</v>
+      </c>
+      <c r="B942">
+        <v>2024</v>
+      </c>
+      <c r="C942" t="s">
+        <v>19</v>
+      </c>
+      <c r="F942" t="s">
+        <v>1326</v>
+      </c>
+      <c r="H942" t="s">
+        <v>42</v>
+      </c>
+      <c r="I942" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="943" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A943">
+        <v>7106</v>
+      </c>
+      <c r="B943">
+        <v>2024</v>
+      </c>
+      <c r="C943" t="s">
+        <v>19</v>
+      </c>
+      <c r="F943" t="s">
+        <v>2348</v>
+      </c>
+      <c r="H943" t="s">
+        <v>2340</v>
+      </c>
+      <c r="I943" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="944" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A944">
+        <v>7122</v>
+      </c>
+      <c r="B944">
+        <v>2024</v>
+      </c>
+      <c r="C944" t="s">
+        <v>19</v>
+      </c>
+      <c r="F944" t="s">
+        <v>2349</v>
+      </c>
+      <c r="H944" t="s">
+        <v>55</v>
+      </c>
+      <c r="I944" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="945" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A945">
+        <v>7123</v>
+      </c>
+      <c r="B945">
+        <v>2024</v>
+      </c>
+      <c r="C945" t="s">
+        <v>19</v>
+      </c>
+      <c r="F945" t="s">
+        <v>2351</v>
+      </c>
+      <c r="H945" t="s">
+        <v>55</v>
+      </c>
+      <c r="I945" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="946" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A946">
+        <v>7106</v>
+      </c>
+      <c r="B946">
+        <v>2022</v>
+      </c>
+      <c r="C946" t="s">
+        <v>19</v>
+      </c>
+      <c r="F946" t="s">
+        <v>2352</v>
+      </c>
+      <c r="H946" t="s">
+        <v>2340</v>
+      </c>
+      <c r="I946" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="947" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A947">
+        <v>7012</v>
+      </c>
+      <c r="B947">
+        <v>2021</v>
+      </c>
+      <c r="C947" t="s">
+        <v>19</v>
+      </c>
+      <c r="F947" t="s">
+        <v>2370</v>
+      </c>
+      <c r="H947" t="s">
+        <v>2340</v>
+      </c>
+      <c r="I947" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="948" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A948">
+        <v>7019</v>
+      </c>
+      <c r="B948">
+        <v>2021</v>
+      </c>
+      <c r="C948" t="s">
+        <v>19</v>
+      </c>
+      <c r="F948" t="s">
+        <v>2354</v>
+      </c>
+      <c r="H948" t="s">
+        <v>2340</v>
+      </c>
+      <c r="I948" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="949" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A949">
+        <v>7023</v>
+      </c>
+      <c r="B949">
+        <v>2021</v>
+      </c>
+      <c r="C949" t="s">
+        <v>19</v>
+      </c>
+      <c r="F949" t="s">
+        <v>2355</v>
+      </c>
+      <c r="H949" t="s">
+        <v>2340</v>
+      </c>
+      <c r="I949" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="950" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A950">
+        <v>7032</v>
+      </c>
+      <c r="B950">
+        <v>2021</v>
+      </c>
+      <c r="C950" t="s">
+        <v>19</v>
+      </c>
+      <c r="F950" t="s">
+        <v>2356</v>
+      </c>
+      <c r="H950" t="s">
+        <v>2340</v>
+      </c>
+      <c r="I950" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="951" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A951">
+        <v>7033</v>
+      </c>
+      <c r="B951">
+        <v>2021</v>
+      </c>
+      <c r="C951" t="s">
+        <v>19</v>
+      </c>
+      <c r="F951" t="s">
+        <v>2357</v>
+      </c>
+      <c r="H951" t="s">
+        <v>2340</v>
+      </c>
+      <c r="I951" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="952" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A952">
+        <v>7040</v>
+      </c>
+      <c r="B952">
+        <v>2021</v>
+      </c>
+      <c r="C952" t="s">
+        <v>19</v>
+      </c>
+      <c r="F952" t="s">
+        <v>2358</v>
+      </c>
+      <c r="H952" t="s">
+        <v>2340</v>
+      </c>
+      <c r="I952" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="953" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A953">
+        <v>7043</v>
+      </c>
+      <c r="B953">
+        <v>2021</v>
+      </c>
+      <c r="C953" t="s">
+        <v>19</v>
+      </c>
+      <c r="F953" t="s">
+        <v>2359</v>
+      </c>
+      <c r="H953" t="s">
+        <v>42</v>
+      </c>
+      <c r="I953" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="954" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A954">
+        <v>7048</v>
+      </c>
+      <c r="B954">
+        <v>2021</v>
+      </c>
+      <c r="C954" t="s">
+        <v>19</v>
+      </c>
+      <c r="F954" t="s">
+        <v>2360</v>
+      </c>
+      <c r="H954" s="9" t="s">
+        <v>2340</v>
+      </c>
+      <c r="I954" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="955" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A955">
+        <v>7051</v>
+      </c>
+      <c r="B955">
+        <v>2021</v>
+      </c>
+      <c r="C955" t="s">
+        <v>19</v>
+      </c>
+      <c r="F955" t="s">
+        <v>2361</v>
+      </c>
+      <c r="H955" s="9" t="s">
+        <v>2340</v>
+      </c>
+      <c r="I955" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="956" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A956">
+        <v>7058</v>
+      </c>
+      <c r="B956">
+        <v>2021</v>
+      </c>
+      <c r="C956" t="s">
+        <v>19</v>
+      </c>
+      <c r="F956" t="s">
+        <v>2371</v>
+      </c>
+      <c r="H956" s="9" t="s">
+        <v>2340</v>
+      </c>
+      <c r="I956" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="957" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A957">
+        <v>7059</v>
+      </c>
+      <c r="B957">
+        <v>2021</v>
+      </c>
+      <c r="C957" t="s">
+        <v>19</v>
+      </c>
+      <c r="F957" t="s">
+        <v>2372</v>
+      </c>
+      <c r="H957" s="9" t="s">
+        <v>2340</v>
+      </c>
+      <c r="I957" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="958" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A958">
+        <v>7060</v>
+      </c>
+      <c r="B958">
+        <v>2021</v>
+      </c>
+      <c r="C958" t="s">
+        <v>19</v>
+      </c>
+      <c r="F958" t="s">
+        <v>2362</v>
+      </c>
+      <c r="H958" s="9" t="s">
+        <v>2340</v>
+      </c>
+      <c r="I958" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="959" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A959">
+        <v>7063</v>
+      </c>
+      <c r="B959">
+        <v>2021</v>
+      </c>
+      <c r="C959" t="s">
+        <v>19</v>
+      </c>
+      <c r="F959" t="s">
+        <v>2363</v>
+      </c>
+      <c r="H959" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I959" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="960" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A960">
+        <v>7069</v>
+      </c>
+      <c r="B960">
+        <v>2021</v>
+      </c>
+      <c r="C960" t="s">
+        <v>19</v>
+      </c>
+      <c r="F960" t="s">
+        <v>2364</v>
+      </c>
+      <c r="H960" s="9" t="s">
+        <v>2340</v>
+      </c>
+      <c r="I960" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="961" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A961">
+        <v>7078</v>
+      </c>
+      <c r="B961">
+        <v>2021</v>
+      </c>
+      <c r="C961" t="s">
+        <v>19</v>
+      </c>
+      <c r="F961" t="s">
+        <v>2365</v>
+      </c>
+      <c r="H961" s="9" t="s">
+        <v>2340</v>
+      </c>
+      <c r="I961" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="962" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A962">
+        <v>7088</v>
+      </c>
+      <c r="B962">
+        <v>2021</v>
+      </c>
+      <c r="C962" t="s">
+        <v>19</v>
+      </c>
+      <c r="F962" t="s">
+        <v>2366</v>
+      </c>
+      <c r="H962" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I962" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="963" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A963">
+        <v>7089</v>
+      </c>
+      <c r="B963">
+        <v>2021</v>
+      </c>
+      <c r="C963" t="s">
+        <v>19</v>
+      </c>
+      <c r="F963" t="s">
+        <v>2373</v>
+      </c>
+      <c r="H963" s="9" t="s">
+        <v>2340</v>
+      </c>
+      <c r="I963" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="964" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A964">
+        <v>7102</v>
+      </c>
+      <c r="B964">
+        <v>2021</v>
+      </c>
+      <c r="C964" t="s">
+        <v>19</v>
+      </c>
+      <c r="F964" t="s">
+        <v>2367</v>
+      </c>
+      <c r="H964" s="9" t="s">
+        <v>2340</v>
+      </c>
+      <c r="I964" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="965" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A965">
+        <v>7105</v>
+      </c>
+      <c r="B965">
+        <v>2021</v>
+      </c>
+      <c r="C965" t="s">
+        <v>19</v>
+      </c>
+      <c r="F965" t="s">
+        <v>2368</v>
+      </c>
+      <c r="H965" s="9" t="s">
+        <v>2340</v>
+      </c>
+      <c r="I965" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="966" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A966">
+        <v>7107</v>
+      </c>
+      <c r="B966">
+        <v>2021</v>
+      </c>
+      <c r="C966" t="s">
+        <v>19</v>
+      </c>
+      <c r="F966" t="s">
+        <v>2369</v>
+      </c>
+      <c r="H966" s="9" t="s">
+        <v>2340</v>
+      </c>
+      <c r="I966" t="s">
+        <v>2353</v>
       </c>
     </row>
   </sheetData>
